--- a/2025_forecast/data/f_model_one_step_ahead_function_check.xlsx
+++ b/2025_forecast/data/f_model_one_step_ahead_function_check.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\2025_forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD9BFFD-983E-4F25-964D-4316EDB4605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1825B0-B2F1-4D0B-9E19-EE7D43EAFFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="f_model_one_step_ahead_function" sheetId="1" r:id="rId1"/>
+    <sheet name="f_model_one_step_ahead_func(od)" sheetId="3" r:id="rId1"/>
+    <sheet name="f_model_one_step_ahead_function" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,88 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Miller, Sara E (DFG)</author>
+  </authors>
+  <commentList>
+    <comment ref="Z12" authorId="0" shapeId="0" xr:uid="{8CBBF5DD-C397-4CDE-8B4A-A1B1663E342A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Miller, Sara E (DFG):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is a regression using data from Jyear 1997 to 2018 only for the 2025 foreacast. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA12" authorId="0" shapeId="0" xr:uid="{5A8D3B87-C3AA-431E-A93E-D0AACD63854A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Miller, Sara E (DFG):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+output from running the fucntion f_model_one_step_ahead in the function.r file as a test for the years used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD19" authorId="0" shapeId="0" xr:uid="{9978A945-C823-41BC-BDB1-645EB5761946}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Miller, Sara E (DFG):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should match the output int the file seak_model_summary_one_step_ahead5.csv.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Miller, Sara E (DFG)</author>
@@ -115,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>JYear</t>
   </si>
@@ -293,12 +376,18 @@
   <si>
     <t>formulas</t>
   </si>
+  <si>
+    <t>m33a</t>
+  </si>
+  <si>
+    <t>as.factor(odd_even_factor)odd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,8 +549,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,8 +754,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -818,6 +931,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -863,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,7 +999,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,10 +1011,10 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -896,6 +1024,37 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,9 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -966,6 +1122,326 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86716E06-611A-4C6C-9273-CC47F65056AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28736924" y="157160"/>
+          <a:ext cx="9944102" cy="2357440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Directions for checking the MAPE years:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(1) Copy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> data from the file varyyy_final.csv into the blue area.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(2) The formul for the observed havest in log space should update automatically.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(3) Run a regression with ln(observed harvest) for y and CPUE for x. Only use the data up through y-6 where y is the current data year. For example, for forecast year 2025, use data from Jyear 1997 to Jyear 2018 where y would be 2024 for y-6. Place the regression summary starting in cell E32.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(4) Update the formula in cell Y23. It should be the predicted harvest for Jyesa y-5. So, for the 2025 forecast, the predicted value is for 2019 using the regression parameters in the CPUE model from Jyear 1997 to 208.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(5) Next, within the functions.R file withing the code folder, run the lines of code: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>f_model_one_step_ahead </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;- function(harvest,variables,model, start, end, model_num){  n&lt;-dim(variables)[1]  model.results&lt;-numeric()  obs&lt;-harvest[-n]  data&lt;-variables[-n,]  fit.out&lt;-list()  for (i in (end+1):tail(data$JYear)[6])  {    fit&lt;-lm(model,data = data[data$JYear &gt;= start &amp; data$JYear &lt; i,])    fit.out&lt;-list()    data$model1_sim[data$JYear == i] &lt;- predict(fit, newdata = data[data$JYear == i,])    data$sigma[data$JYear == i] &lt;- sigma(fit, newdata = data[data$JYear == i,])  }  return(data)  data %&gt;%     dplyr::filter(JYear &gt; end) %&gt;%     as.data.frame() %&gt;%     write.csv(., file = paste0(results.directory.MAPE, "results_",model_num,".csv"))  # mape(exp(output$SEAKCatch_log),exp(output$model1_sim))} # function check for one model (one step ahead MAPE)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>seak_model_summary1 &lt;- f_model_one_step_ah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ead(harvest=log_data$SEAKCatch_log, variables=log_data, model = SEAKCatch_log ~CPUE, start = 1997, end = 2013, model_num = "m1")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Make sure the return data is NOT commented</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> out. The start and end date should be 1997 to 2018 for the 2025 forecast for the 5-year MAPE. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>The output from '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seak_model_summary1'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in column </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>model1_sim should be the one-step-ahead MAPEs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> for the lat 5 years.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(6) Place these values starting in Z23. The rest of the columns should update automatically.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(7) Next, run </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>the f_model_one_step_ahead_multiple5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(harvest=log_data$SEAKCatch_log, variables=log_data, model.formulas=model.formulas,model.names=model.names, start = 1997, end = 2018)  function in the 1_summarize_models.r file with the same start and end years as in step #5 above. The output will be placed in a csv file in the results folder. The file will be called seak_model_summary_one_step_ahead5.csv.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(8) Finally, check that the value in cell AC30 matches the value for the CPUE-only model in the file </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>seak_model_summary_one_step_ahead5.csv.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1581,11 +2057,1923 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8321857C-BCD0-48C9-BC54-D927263AF84A}">
+  <dimension ref="A1:AE53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>77.818105000000003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.3975133329999991</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.6223799840000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9.85</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.83</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.91</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="L2" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="M2" s="3">
+        <v>7.56</v>
+      </c>
+      <c r="N2" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="O2" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="P2" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="R2" s="3">
+        <v>10.36</v>
+      </c>
+      <c r="S2" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="T2" s="3">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="U2" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="V2" s="7">
+        <f>LN(C2)</f>
+        <v>4.3543741161933518</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>67.023652999999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.7700152219999996</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.7299846680000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7.52</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9.94</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7.02</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8.67</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7.35</v>
+      </c>
+      <c r="N3" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="P3" s="3">
+        <v>8.57</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="R3" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="S3" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="T3" s="3">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7.86</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" ref="V3:V14" si="0">LN(C3)</f>
+        <v>4.2050455869413366</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>52.466735</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.1995391669999993</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.7846640640000002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.39</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7.85</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6.64</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9.34</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6.26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>8.02</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="O4" s="3">
+        <v>6.39</v>
+      </c>
+      <c r="P4" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>6.61</v>
+      </c>
+      <c r="R4" s="3">
+        <v>9.44</v>
+      </c>
+      <c r="S4" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="T4" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="U4" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9601793497285764</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C5" s="3">
+        <v>59.121487000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.3330841870000008</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.8994067399999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10.43</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7.94</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7.96</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10.68</v>
+      </c>
+      <c r="K5" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.69</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="O5" s="3">
+        <v>7.89</v>
+      </c>
+      <c r="P5" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>7.79</v>
+      </c>
+      <c r="R5" s="3">
+        <v>10.98</v>
+      </c>
+      <c r="S5" s="3">
+        <v>8.58</v>
+      </c>
+      <c r="T5" s="3">
+        <v>9.74</v>
+      </c>
+      <c r="U5" s="3">
+        <v>8.51</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0795944285563817</v>
+      </c>
+      <c r="W5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44.796396999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.7508172500000008</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.5727806869999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7.16</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.68</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7.58</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.84</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7.49</v>
+      </c>
+      <c r="N6" s="3">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7.36</v>
+      </c>
+      <c r="R6" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7.63</v>
+      </c>
+      <c r="T6" s="3">
+        <v>9.07</v>
+      </c>
+      <c r="U6" s="3">
+        <v>7.96</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8021277120796046</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C7" s="3">
+        <v>38.024357000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.9118316760000003</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.3234730520000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7.69</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6.83</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.43</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="N7" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.64</v>
+      </c>
+      <c r="P7" s="3">
+        <v>7.63</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>6.74</v>
+      </c>
+      <c r="R7" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="S7" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="T7" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="U7" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6382269280747028</v>
+      </c>
+      <c r="W7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="3">
+        <v>58.882053999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.3533333330000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.1083180600000002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.65</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.97</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8.66</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="L8" s="3">
+        <v>8.68</v>
+      </c>
+      <c r="M8" s="3">
+        <v>7.81</v>
+      </c>
+      <c r="N8" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7.76</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10.09</v>
+      </c>
+      <c r="S8" s="3">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="T8" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="U8" s="3">
+        <v>8.23</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0755363583230402</v>
+      </c>
+      <c r="W8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="3">
+        <v>94.719421999999994</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.4766666669999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.5215051819999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.17</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.07</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.18</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9.23</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="L9" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7.07</v>
+      </c>
+      <c r="N9" s="3">
+        <v>9.14</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="P9" s="3">
+        <v>8.09</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="S9" s="3">
+        <v>7.47</v>
+      </c>
+      <c r="T9" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="U9" s="3">
+        <v>7.61</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5509190689211314</v>
+      </c>
+      <c r="W9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="3">
+        <v>35.092568</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.8173732970000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.98</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8.76</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10.23</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="L10" s="3">
+        <v>8.81</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7.62</v>
+      </c>
+      <c r="N10" s="3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="O10" s="3">
+        <v>8.15</v>
+      </c>
+      <c r="P10" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>7.64</v>
+      </c>
+      <c r="R10" s="3">
+        <v>10.57</v>
+      </c>
+      <c r="S10" s="3">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="T10" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="U10" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5579893701604499</v>
+      </c>
+      <c r="W10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="3">
+        <v>34.734774000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.198499999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.3510925150000004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11.04</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8.92</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9.07</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11.65</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8.81</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9.14</v>
+      </c>
+      <c r="N11" s="3">
+        <v>11.18</v>
+      </c>
+      <c r="O11" s="3">
+        <v>8.92</v>
+      </c>
+      <c r="P11" s="3">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>9</v>
+      </c>
+      <c r="R11" s="3">
+        <v>11.67</v>
+      </c>
+      <c r="S11" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="T11" s="3">
+        <v>10.59</v>
+      </c>
+      <c r="U11" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5477413177180348</v>
+      </c>
+      <c r="W11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="3">
+        <v>21.141909999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.9249520830000009</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.17155842</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.61</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8.74</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7.43</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="O12" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="P12" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>7.63</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10.79</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="T12" s="3">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="U12" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0512573264080753</v>
+      </c>
+      <c r="W12" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="9">
+        <f>$F$34+($F$35*E10)</f>
+        <v>4.1300952440982037</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4.1300949999999998</v>
+      </c>
+      <c r="AB12" s="9">
+        <f>EXP(AA12)</f>
+        <v>62.183830118026357</v>
+      </c>
+      <c r="AC12" s="9">
+        <f>EXP(V10)</f>
+        <v>35.092567999999993</v>
+      </c>
+      <c r="AD12" s="9">
+        <f>AVERAGE(ABS((AC12-AB12)/AC12))</f>
+        <v>0.77199429001680264</v>
+      </c>
+      <c r="AE12" s="9">
+        <f>(ABS((V10-AA12)/V10))</f>
+        <v>0.1607946427939301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="3">
+        <v>48.528191999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.8882535419999993</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.1475022560000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8.09</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8.84</v>
+      </c>
+      <c r="I13" s="3">
+        <v>7.86</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7.83</v>
+      </c>
+      <c r="L13" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7.86</v>
+      </c>
+      <c r="N13" s="3">
+        <v>10.23</v>
+      </c>
+      <c r="O13" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="P13" s="3">
+        <v>8.98</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>7.94</v>
+      </c>
+      <c r="R13" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="S13" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="T13" s="3">
+        <v>9.52</v>
+      </c>
+      <c r="U13" s="3">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8821449074171324</v>
+      </c>
+      <c r="W13" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="1">
+        <v>4.1556810000000004</v>
+      </c>
+      <c r="AB13" s="9">
+        <f>EXP(AA13)</f>
+        <v>63.795394421863698</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" ref="AC13:AC16" si="1">EXP(V11)</f>
+        <v>34.734774000000002</v>
+      </c>
+      <c r="AD13" s="9">
+        <f>AVERAGE(ABS((AC13-AB13)/AC13))</f>
+        <v>0.8366434289125847</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" ref="AE13:AE16" si="2">(ABS((V11-AA13)/V11))</f>
+        <v>0.17135964204769089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="3">
+        <v>47.839511000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.9843882520000005</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.446381208</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10.17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7.52</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8.92</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.64</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10.34</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="L14" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="M14" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>10.52</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7.62</v>
+      </c>
+      <c r="P14" s="3">
+        <v>9.11</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>7.74</v>
+      </c>
+      <c r="R14" s="3">
+        <v>11.04</v>
+      </c>
+      <c r="S14" s="3">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="T14" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="U14" s="3">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8678518880182295</v>
+      </c>
+      <c r="W14" s="3">
+        <v>13</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="1">
+        <v>3.6660650000000001</v>
+      </c>
+      <c r="AB14" s="9">
+        <f>EXP(AA14)</f>
+        <v>39.09775310520115</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" si="1"/>
+        <v>21.141909999999996</v>
+      </c>
+      <c r="AD14" s="9">
+        <f>AVERAGE(ABS((AC14-AB14)/AC14))</f>
+        <v>0.84930089595505598</v>
+      </c>
+      <c r="AE14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.20149322322666022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>9.34</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.6601689639999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="H15" s="5">
+        <v>8.82</v>
+      </c>
+      <c r="I15" s="5">
+        <v>7.92</v>
+      </c>
+      <c r="J15" s="5">
+        <v>9.86</v>
+      </c>
+      <c r="K15" s="5">
+        <v>7.41</v>
+      </c>
+      <c r="L15" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M15" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="N15" s="5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="O15" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="P15" s="5">
+        <v>8.93</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>7.92</v>
+      </c>
+      <c r="R15" s="5">
+        <v>10.49</v>
+      </c>
+      <c r="S15" s="5">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="T15" s="5">
+        <v>9.51</v>
+      </c>
+      <c r="U15" s="5">
+        <v>8.52</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="1">
+        <v>3.60243</v>
+      </c>
+      <c r="AB15" s="9">
+        <f>EXP(AA15)</f>
+        <v>36.687276295410719</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="1"/>
+        <v>48.528191999999997</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" ref="AD15" si="3">AVERAGE(ABS((AC15-AB15)/AC15))</f>
+        <v>0.2440007594882018</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="2"/>
+        <v>7.2051640030931299E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="O16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="1">
+        <v>3.5091559999999999</v>
+      </c>
+      <c r="AB16" s="9">
+        <f>EXP(AA16)</f>
+        <v>33.420049355787029</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="1"/>
+        <v>47.839511000000009</v>
+      </c>
+      <c r="AD16" s="9">
+        <f>AVERAGE(ABS((AC16-AB16)/AC16))</f>
+        <v>0.30141323234288447</v>
+      </c>
+      <c r="AE16" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2737751703831278E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="O17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="O18" s="2">
+        <v>1997</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="R18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="O19" s="2">
+        <v>1997</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2013</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2025</v>
+      </c>
+      <c r="R19" s="2">
+        <v>10</v>
+      </c>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19" s="9">
+        <f>AVERAGE(AD12:AD16)</f>
+        <v>0.60067052134310595</v>
+      </c>
+      <c r="AE19" s="9">
+        <f>AVERAGE(AE12:AE16)</f>
+        <v>0.13968737996060876</v>
+      </c>
+    </row>
+    <row r="20" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="O20" s="2">
+        <v>1997</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2024</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
+    <row r="21" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.68417183092066924</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="O21" s="2">
+        <v>1997</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2012</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="R21" s="2">
+        <v>10</v>
+      </c>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.46809109422534084</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="O22" s="2">
+        <v>1998</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+    </row>
+    <row r="23" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.37943960992956433</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+    </row>
+    <row r="24" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.23050680097967055</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="5:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="24">
+        <v>8</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="V25" s="21"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="V26" s="21"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" spans="5:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="V27" s="21"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="V28" s="22"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="23">
+        <v>1</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0.28055102135686261</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0.28055102135686261</v>
+      </c>
+      <c r="I29" s="23">
+        <v>5.2801269820097234</v>
+      </c>
+      <c r="J29" s="23">
+        <v>6.1280596191027201E-2</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" spans="5:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="23">
+        <v>6</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0.31880031178728874</v>
+      </c>
+      <c r="H30" s="23">
+        <v>5.3133385297881454E-2</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" spans="5:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="24">
+        <v>7</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.59935133314415134</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" spans="5:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="5:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" spans="5:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="23">
+        <v>3.4062846762463974</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0.30567227920489654</v>
+      </c>
+      <c r="H34" s="23">
+        <v>11.143583857544098</v>
+      </c>
+      <c r="I34" s="23">
+        <v>3.1140764707739301E-5</v>
+      </c>
+      <c r="J34" s="23">
+        <v>2.6583315536934418</v>
+      </c>
+      <c r="K34" s="23">
+        <v>4.1542377987993531</v>
+      </c>
+      <c r="L34" s="23">
+        <v>2.6583315536934418</v>
+      </c>
+      <c r="M34" s="23">
+        <v>4.1542377987993531</v>
+      </c>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" spans="5:30" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0.18960958531895084</v>
+      </c>
+      <c r="G35" s="24">
+        <v>8.2515988164397175E-2</v>
+      </c>
+      <c r="H35" s="24">
+        <v>2.2978526893623372</v>
+      </c>
+      <c r="I35" s="24">
+        <v>6.1280596191027138E-2</v>
+      </c>
+      <c r="J35" s="24">
+        <v>-1.2299764029450655E-2</v>
+      </c>
+      <c r="K35" s="24">
+        <v>0.39151893466735233</v>
+      </c>
+      <c r="L35" s="24">
+        <v>-1.2299764029450655E-2</v>
+      </c>
+      <c r="M35" s="24">
+        <v>0.39151893466735233</v>
+      </c>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" spans="5:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" spans="5:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" spans="5:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="40" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
+        <v>5.6223799840000002</v>
+      </c>
+    </row>
+    <row r="41" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
+        <v>3.7299846680000002</v>
+      </c>
+    </row>
+    <row r="42" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
+        <v>2.7846640640000002</v>
+      </c>
+    </row>
+    <row r="43" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E43" s="3">
+        <v>3.8994067399999999</v>
+      </c>
+    </row>
+    <row r="44" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E44" s="3">
+        <v>2.5727806869999998</v>
+      </c>
+    </row>
+    <row r="45" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E45" s="3">
+        <v>2.3234730520000002</v>
+      </c>
+    </row>
+    <row r="46" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
+        <v>4.1083180600000002</v>
+      </c>
+    </row>
+    <row r="47" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E47" s="3">
+        <v>3.5215051819999998</v>
+      </c>
+    </row>
+    <row r="48" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E48" s="3">
+        <v>3.8173732970000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <v>4.3510925150000004</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="3">
+        <v>1.17155842</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="3">
+        <v>2.1475022560000001</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="3">
+        <v>1.446381208</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="5">
+        <v>1.6601689639999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +4086,7 @@
         <v>9.2753196760000005</v>
       </c>
       <c r="E2" s="4">
-        <v>2.48</v>
+        <v>2.4777443940000001</v>
       </c>
       <c r="F2" s="4">
         <v>10.08</v>
@@ -1749,7 +4137,7 @@
         <v>7.99</v>
       </c>
       <c r="V2" s="6">
-        <f>LN(C2)</f>
+        <f t="shared" ref="V2:V28" si="0">LN(C2)</f>
         <v>3.7482974423584441</v>
       </c>
     </row>
@@ -1767,7 +4155,7 @@
         <v>9.3975133329999991</v>
       </c>
       <c r="E3" s="3">
-        <v>5.62</v>
+        <v>5.6223799840000002</v>
       </c>
       <c r="F3" s="3">
         <v>9.85</v>
@@ -1818,7 +4206,7 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="V3" s="7">
-        <f>LN(C3)</f>
+        <f t="shared" si="0"/>
         <v>4.3543741161933518</v>
       </c>
     </row>
@@ -1836,7 +4224,7 @@
         <v>8.5597487500000007</v>
       </c>
       <c r="E4" s="3">
-        <v>1.6</v>
+        <v>1.597723341</v>
       </c>
       <c r="F4" s="3">
         <v>8.9</v>
@@ -1887,7 +4275,7 @@
         <v>7.43</v>
       </c>
       <c r="V4" s="7">
-        <f>LN(C4)</f>
+        <f t="shared" si="0"/>
         <v>3.0081042737579264</v>
       </c>
     </row>
@@ -1905,7 +4293,7 @@
         <v>8.7700152219999996</v>
       </c>
       <c r="E5" s="3">
-        <v>3.73</v>
+        <v>3.7299846680000002</v>
       </c>
       <c r="F5" s="3">
         <v>9.6999999999999993</v>
@@ -1956,7 +4344,7 @@
         <v>7.86</v>
       </c>
       <c r="V5" s="7">
-        <f>LN(C5)</f>
+        <f t="shared" si="0"/>
         <v>4.2050455869413366</v>
       </c>
     </row>
@@ -1974,7 +4362,7 @@
         <v>9.0255327330000004</v>
       </c>
       <c r="E6" s="3">
-        <v>2.87</v>
+        <v>2.8688260429999999</v>
       </c>
       <c r="F6" s="3">
         <v>9.15</v>
@@ -2025,7 +4413,7 @@
         <v>7.45</v>
       </c>
       <c r="V6" s="7">
-        <f>LN(C6)</f>
+        <f t="shared" si="0"/>
         <v>3.8136469526345338</v>
       </c>
     </row>
@@ -2043,7 +4431,7 @@
         <v>8.1995391669999993</v>
       </c>
       <c r="E7" s="3">
-        <v>2.78</v>
+        <v>2.7846640640000002</v>
       </c>
       <c r="F7" s="3">
         <v>8.9700000000000006</v>
@@ -2094,7 +4482,7 @@
         <v>7.14</v>
       </c>
       <c r="V7" s="7">
-        <f>LN(C7)</f>
+        <f t="shared" si="0"/>
         <v>3.9601793497285764</v>
       </c>
     </row>
@@ -2112,7 +4500,7 @@
         <v>9.3076910129999995</v>
       </c>
       <c r="E8" s="3">
-        <v>3.08</v>
+        <v>3.0778203620000002</v>
       </c>
       <c r="F8" s="3">
         <v>9.92</v>
@@ -2163,7 +4551,7 @@
         <v>8.16</v>
       </c>
       <c r="V8" s="7">
-        <f>LN(C8)</f>
+        <f t="shared" si="0"/>
         <v>3.813522108696191</v>
       </c>
     </row>
@@ -2181,7 +4569,7 @@
         <v>9.3330841870000008</v>
       </c>
       <c r="E9" s="3">
-        <v>3.9</v>
+        <v>3.8994067399999999</v>
       </c>
       <c r="F9" s="3">
         <v>10.43</v>
@@ -2232,7 +4620,7 @@
         <v>8.51</v>
       </c>
       <c r="V9" s="7">
-        <f>LN(C9)</f>
+        <f t="shared" si="0"/>
         <v>4.0795944285563817</v>
       </c>
     </row>
@@ -2250,7 +4638,7 @@
         <v>10.20637217</v>
       </c>
       <c r="E10" s="3">
-        <v>2.04</v>
+        <v>2.0403453630000001</v>
       </c>
       <c r="F10" s="3">
         <v>10.67</v>
@@ -2301,7 +4689,7 @@
         <v>8.82</v>
       </c>
       <c r="V10" s="7">
-        <f>LN(C10)</f>
+        <f t="shared" si="0"/>
         <v>2.4515652860053647</v>
       </c>
     </row>
@@ -2319,7 +4707,7 @@
         <v>8.7508172500000008</v>
       </c>
       <c r="E11" s="3">
-        <v>2.58</v>
+        <v>2.5727806869999998</v>
       </c>
       <c r="F11" s="3">
         <v>9.7799999999999994</v>
@@ -2370,7 +4758,7 @@
         <v>7.96</v>
       </c>
       <c r="V11" s="7">
-        <f>LN(C11)</f>
+        <f t="shared" si="0"/>
         <v>3.8021277120796046</v>
       </c>
     </row>
@@ -2388,7 +4776,7 @@
         <v>8.9360062019999997</v>
       </c>
       <c r="E12" s="3">
-        <v>1.17</v>
+        <v>1.1676385929999999</v>
       </c>
       <c r="F12" s="3">
         <v>9.52</v>
@@ -2439,7 +4827,7 @@
         <v>7.64</v>
       </c>
       <c r="V12" s="7">
-        <f>LN(C12)</f>
+        <f t="shared" si="0"/>
         <v>2.7668802096415366</v>
       </c>
     </row>
@@ -2457,7 +4845,7 @@
         <v>7.9118316760000003</v>
       </c>
       <c r="E13" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.3234730520000002</v>
       </c>
       <c r="F13" s="3">
         <v>8.65</v>
@@ -2508,7 +4896,7 @@
         <v>7.28</v>
       </c>
       <c r="V13" s="7">
-        <f>LN(C13)</f>
+        <f t="shared" si="0"/>
         <v>3.6382269280747028</v>
       </c>
     </row>
@@ -2526,7 +4914,7 @@
         <v>9.3566666670000007</v>
       </c>
       <c r="E14" s="3">
-        <v>2.33</v>
+        <v>2.3330030709999998</v>
       </c>
       <c r="F14" s="3">
         <v>9.75</v>
@@ -2577,7 +4965,7 @@
         <v>7.73</v>
       </c>
       <c r="V14" s="7">
-        <f>LN(C14)</f>
+        <f t="shared" si="0"/>
         <v>3.1839394344833187</v>
       </c>
     </row>
@@ -2595,7 +4983,7 @@
         <v>9.3533333330000001</v>
       </c>
       <c r="E15" s="3">
-        <v>4.1100000000000003</v>
+        <v>4.1083180600000002</v>
       </c>
       <c r="F15" s="3">
         <v>9.65</v>
@@ -2646,7 +5034,7 @@
         <v>8.23</v>
       </c>
       <c r="V15" s="7">
-        <f>LN(C15)</f>
+        <f t="shared" si="0"/>
         <v>4.0755363583230402</v>
       </c>
     </row>
@@ -2664,7 +5052,7 @@
         <v>8.6533333330000008</v>
       </c>
       <c r="E16" s="3">
-        <v>1.51</v>
+        <v>1.454838125</v>
       </c>
       <c r="F16" s="3">
         <v>9.59</v>
@@ -2715,11 +5103,11 @@
         <v>7.92</v>
       </c>
       <c r="V16" s="7">
-        <f>LN(C16)</f>
+        <f t="shared" si="0"/>
         <v>3.0576275230751495</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2012</v>
       </c>
@@ -2733,7 +5121,7 @@
         <v>8.4766666669999999</v>
       </c>
       <c r="E17" s="3">
-        <v>3.52</v>
+        <v>3.5215051819999998</v>
       </c>
       <c r="F17" s="3">
         <v>9.17</v>
@@ -2784,12 +5172,12 @@
         <v>7.61</v>
       </c>
       <c r="V17" s="7">
-        <f>LN(C17)</f>
+        <f t="shared" si="0"/>
         <v>4.5509190689211314</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>2013</v>
       </c>
       <c r="B18" s="3">
@@ -2802,7 +5190,7 @@
         <v>8.8346666670000005</v>
       </c>
       <c r="E18" s="3">
-        <v>2.14</v>
+        <v>2.1427677090000001</v>
       </c>
       <c r="F18" s="3">
         <v>9.66</v>
@@ -2853,7 +5241,7 @@
         <v>7.85</v>
       </c>
       <c r="V18" s="7">
-        <f>LN(C18)</f>
+        <f t="shared" si="0"/>
         <v>3.6156059525389286</v>
       </c>
     </row>
@@ -2871,7 +5259,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="E19" s="3">
-        <v>3.8</v>
+        <v>3.8173732970000001</v>
       </c>
       <c r="F19" s="3">
         <v>9.98</v>
@@ -2922,12 +5310,12 @@
         <v>8.17</v>
       </c>
       <c r="V19" s="7">
-        <f>LN(C19)</f>
+        <f t="shared" si="0"/>
         <v>3.5579893701604499</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="19">
         <v>2015</v>
       </c>
       <c r="B20" s="3">
@@ -2940,7 +5328,7 @@
         <v>9.6066666670000007</v>
       </c>
       <c r="E20" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.4526465470000001</v>
       </c>
       <c r="F20" s="3">
         <v>10.62</v>
@@ -2991,7 +5379,7 @@
         <v>9.32</v>
       </c>
       <c r="V20" s="7">
-        <f>LN(C20)</f>
+        <f t="shared" si="0"/>
         <v>2.9109475067361537</v>
       </c>
     </row>
@@ -3009,7 +5397,7 @@
         <v>10.198499999999999</v>
       </c>
       <c r="E21" s="3">
-        <v>4.3499999999999996</v>
+        <v>4.3510925150000004</v>
       </c>
       <c r="F21" s="3">
         <v>11.04</v>
@@ -3060,12 +5448,12 @@
         <v>9.59</v>
       </c>
       <c r="V21" s="7">
-        <f>LN(C21)</f>
+        <f t="shared" si="0"/>
         <v>3.5477413177180348</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <v>2017</v>
       </c>
       <c r="B22" s="3">
@@ -3078,7 +5466,7 @@
         <v>8.5605329169999997</v>
       </c>
       <c r="E22" s="3">
-        <v>0.35</v>
+        <v>0.34583663999999997</v>
       </c>
       <c r="F22" s="3">
         <v>9.65</v>
@@ -3129,30 +5517,30 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="V22" s="7">
-        <f>LN(C22)</f>
+        <f t="shared" si="0"/>
         <v>2.0878684354640864</v>
       </c>
-      <c r="Y22" s="16" t="s">
+      <c r="Y22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="Z22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AA22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AB22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AC22" s="16" t="s">
+      <c r="AC22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AD22" s="16" t="s">
+      <c r="AD22" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>2018</v>
       </c>
       <c r="B23" s="3">
@@ -3165,7 +5553,7 @@
         <v>8.9249520830000009</v>
       </c>
       <c r="E23" s="3">
-        <v>1.17</v>
+        <v>1.17155842</v>
       </c>
       <c r="F23" s="3">
         <v>9.8699999999999992</v>
@@ -3216,12 +5604,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="V23" s="7">
-        <f>LN(C23)</f>
+        <f t="shared" si="0"/>
         <v>3.0512573264080753</v>
       </c>
       <c r="Y23" s="9">
         <f>$F$48+($F$49*E24)</f>
-        <v>2.8713359136573362</v>
+        <v>2.8721346630120608</v>
       </c>
       <c r="Z23" s="1">
         <v>2.8713359999999999</v>
@@ -3244,7 +5632,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="20">
         <v>2019</v>
       </c>
       <c r="B24" s="3">
@@ -3257,7 +5645,7 @@
         <v>9.9112112499999991</v>
       </c>
       <c r="E24" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.141970892</v>
       </c>
       <c r="F24" s="3">
         <v>10.47</v>
@@ -3308,7 +5696,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="V24" s="7">
-        <f>LN(C24)</f>
+        <f t="shared" si="0"/>
         <v>2.0872843314454741</v>
       </c>
       <c r="Z24" s="1">
@@ -3319,7 +5707,7 @@
         <v>25.228366091174362</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" ref="AB24:AB27" si="0">EXP(V25)</f>
+        <f t="shared" ref="AB24:AB27" si="1">EXP(V25)</f>
         <v>48.528191999999997</v>
       </c>
       <c r="AC24" s="9">
@@ -3332,7 +5720,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="16">
         <v>2020</v>
       </c>
       <c r="B25" s="3">
@@ -3396,7 +5784,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="V25" s="7">
-        <f>LN(C25)</f>
+        <f t="shared" si="0"/>
         <v>3.8821449074171324</v>
       </c>
       <c r="Z25" s="1">
@@ -3407,7 +5795,7 @@
         <v>15.05520833352965</v>
       </c>
       <c r="AB25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.299157999999995</v>
       </c>
       <c r="AC25" s="9">
@@ -3420,7 +5808,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="20">
         <v>2021</v>
       </c>
       <c r="B26" s="3">
@@ -3433,7 +5821,7 @@
         <v>8.8855099210000006</v>
       </c>
       <c r="E26" s="3">
-        <v>0.87545412199999995</v>
+        <v>0.87073615199999999</v>
       </c>
       <c r="F26" s="3">
         <v>10.06</v>
@@ -3484,7 +5872,7 @@
         <v>8.31</v>
       </c>
       <c r="V26" s="7">
-        <f>LN(C26)</f>
+        <f t="shared" si="0"/>
         <v>2.906855047859878</v>
       </c>
       <c r="Z26" s="1">
@@ -3495,11 +5883,11 @@
         <v>19.611399415446524</v>
       </c>
       <c r="AB26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.839511000000009</v>
       </c>
       <c r="AC26" s="9">
-        <f t="shared" ref="AC26" si="1">AVERAGE(ABS((AB26-AA26)/AB26))</f>
+        <f t="shared" ref="AC26" si="2">AVERAGE(ABS((AB26-AA26)/AB26))</f>
         <v>0.59005853100282479</v>
       </c>
       <c r="AD26" s="9">
@@ -3508,7 +5896,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="16">
         <v>2022</v>
       </c>
       <c r="B27" s="3">
@@ -3521,7 +5909,7 @@
         <v>8.9843882520000005</v>
       </c>
       <c r="E27" s="3">
-        <v>1.4482912729999999</v>
+        <v>1.446381208</v>
       </c>
       <c r="F27" s="3">
         <v>10.17</v>
@@ -3572,7 +5960,7 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="V27" s="7">
-        <f>LN(C27)</f>
+        <f t="shared" si="0"/>
         <v>3.8678518880182295</v>
       </c>
       <c r="X27" s="10" t="s">
@@ -3586,7 +5974,7 @@
         <v>19.022490696695961</v>
       </c>
       <c r="AB27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.869469999999996</v>
       </c>
       <c r="AC27" s="9">
@@ -3599,7 +5987,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="20">
         <v>2023</v>
       </c>
       <c r="B28" s="3">
@@ -3612,7 +6000,7 @@
         <v>8.9229968589999995</v>
       </c>
       <c r="E28" s="3">
-        <v>1.218385407</v>
+        <v>1.193241169</v>
       </c>
       <c r="F28" s="3">
         <v>9.8000000000000007</v>
@@ -3663,7 +6051,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="V28" s="7">
-        <f>LN(C28)</f>
+        <f t="shared" si="0"/>
         <v>2.9891843828310343</v>
       </c>
       <c r="X28" s="11" t="s">
@@ -3685,7 +6073,7 @@
         <v>9.34</v>
       </c>
       <c r="E29" s="5">
-        <v>1.6592012890000001</v>
+        <v>1.6601689639999999</v>
       </c>
       <c r="F29" s="5">
         <v>9.7100000000000009</v>
@@ -3816,10 +6204,10 @@
       </c>
     </row>
     <row r="34" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="14"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -3841,10 +6229,10 @@
       </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E35" s="12" t="s">
+      <c r="E35" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35">
         <v>0.7924219829281095</v>
       </c>
       <c r="G35"/>
@@ -3868,10 +6256,10 @@
       </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E36" s="12" t="s">
+      <c r="E36" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36">
         <v>0.62793259902771703</v>
       </c>
       <c r="G36"/>
@@ -3883,10 +6271,10 @@
       <c r="M36"/>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E37" s="12" t="s">
+      <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37">
         <v>0.6093292289791028</v>
       </c>
       <c r="G37"/>
@@ -3898,10 +6286,10 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E38" s="12" t="s">
+      <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38">
         <v>0.39321371061954169</v>
       </c>
       <c r="G38"/>
@@ -3913,10 +6301,10 @@
       <c r="M38"/>
     </row>
     <row r="39" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>22</v>
       </c>
       <c r="G39"/>
@@ -3952,20 +6340,20 @@
       <c r="M41"/>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K42"/>
@@ -3973,22 +6361,22 @@
       <c r="M42"/>
     </row>
     <row r="43" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E43" s="12" t="s">
+      <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43">
         <v>5.2188968107557487</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43">
         <v>5.2188968107557487</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43">
         <v>33.753701473808754</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43">
         <v>1.1020517108621313E-5</v>
       </c>
       <c r="K43"/>
@@ -3996,37 +6384,37 @@
       <c r="M43"/>
     </row>
     <row r="44" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E44" s="12" t="s">
+      <c r="E44" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44">
         <v>20</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44">
         <v>3.0923404443837734</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44">
         <v>0.15461702221918866</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+      <c r="I44"/>
+      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
     <row r="45" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>21</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>8.3112372551395222</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
@@ -4043,91 +6431,91 @@
       <c r="M46"/>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E48" s="12" t="s">
+      <c r="E48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48">
         <v>2.4093246698216157</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48">
         <v>0.20760791594239456</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48">
         <v>11.605167649243858</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48">
         <v>2.4498342500442539E-10</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48">
         <v>1.9762621458027365</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48">
         <v>2.8423871938404952</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48">
         <v>1.9762621458027365</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48">
         <v>2.8423871938404952</v>
       </c>
     </row>
-    <row r="49" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="13" t="s">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <v>0.4052730209085269</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <v>6.9756870900535964E-2</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <v>5.8097935827195064</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>1.1020517108621293E-5</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="12">
         <v>0.259762738014365</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="12">
         <v>0.55078330380268881</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="12">
         <v>0.259762738014365</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="12">
         <v>0.55078330380268881</v>
       </c>
     </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
@@ -4138,7 +6526,7 @@
       <c r="L50"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
@@ -4149,7 +6537,7 @@
       <c r="L51"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
@@ -4160,6 +6548,70 @@
       <c r="L52"/>
       <c r="M52"/>
     </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>0.32082677999999998</v>
+      </c>
+      <c r="D57">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E57">
+        <v>5.1710000000000003</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f>C5</f>
+        <v>67.023652999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>0.43302768000000003</v>
+      </c>
+      <c r="D58">
+        <v>0.151</v>
+      </c>
+      <c r="E58">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="F58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>-0.34187332999999998</v>
+      </c>
+      <c r="D59">
+        <v>0.09</v>
+      </c>
+      <c r="E59">
+        <v>-3.8149999999999999</v>
+      </c>
+      <c r="F59">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
